--- a/Sample/Data/Locale/Locale.xlsx
+++ b/Sample/Data/Locale/Locale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,15 +33,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello, world!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，世界！</t>
+    <t>Skeleton Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_SODIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_SODIER_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The skeleton enemy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIME_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a slime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_Y_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It can open a yellow door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以打开一扇黄门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It can open a blue door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以打开一扇蓝门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_B_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_R_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It can open a red door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以打开一扇红门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,13 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="54.875" customWidth="1"/>
+    <col min="3" max="3" width="59.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -388,13 +501,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
